--- a/cea/databases/CH/assemblies/SUPPLY.xlsx
+++ b/cea/databases/CH/assemblies/SUPPLY.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luis.santos\Documents\CityEnergyAnalyst\CityEnergyAnalyst\cea\databases\CH\assemblies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FCFCA644-7AB1-4920-8414-8B80CBC7E853}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3821968-9711-4B11-85C3-4FDA7D5D5F1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="993" activeTab="1"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="993" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HEATING" sheetId="22" r:id="rId1"/>
@@ -23,25 +23,16 @@
     <definedName name="__xlfn_STDEV_S">#N/A</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Jimeno Fonseca</author>
   </authors>
   <commentList>
-    <comment ref="A6" authorId="0" shapeId="0">
+    <comment ref="A6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -70,12 +61,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Jimeno Fonseca</author>
   </authors>
   <commentList>
-    <comment ref="A6" authorId="0" shapeId="0">
+    <comment ref="A6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -104,7 +95,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="70">
   <si>
     <t>Description</t>
   </si>
@@ -308,15 +299,21 @@
   </si>
   <si>
     <t>Asuming 2000 USD for a 12kW boiler</t>
+  </si>
+  <si>
+    <t>system</t>
+  </si>
+  <si>
+    <t>COOLING</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="181" formatCode="0.0"/>
-    <numFmt numFmtId="182" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -462,16 +459,16 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="182" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="181" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="182" fontId="8" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="8" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -493,9 +490,9 @@
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
-    <cellStyle name="Normal 2 2" xfId="2"/>
-    <cellStyle name="Normal 3" xfId="3"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -925,7 +922,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1368,11 +1365,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1811,27 +1808,28 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="92.453125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.1796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7265625" customWidth="1"/>
-    <col min="8" max="8" width="12.7265625" customWidth="1"/>
-    <col min="10" max="10" width="51.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.1796875" customWidth="1"/>
+    <col min="4" max="4" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7265625" customWidth="1"/>
+    <col min="9" max="9" width="12.7265625" customWidth="1"/>
+    <col min="11" max="11" width="51.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -1839,187 +1837,205 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="11" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="4">
-        <v>0</v>
+      <c r="E2" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F2" s="4">
         <v>0</v>
       </c>
-      <c r="G2" s="10">
-        <v>20</v>
+      <c r="G2" s="4">
+        <v>0</v>
       </c>
       <c r="H2" s="10">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="I2" s="10">
-        <v>5</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="J2" s="10">
+        <v>5</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="8" t="s">
         <v>26</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="5" t="s">
+      <c r="C3" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="6">
+      <c r="F3" s="6">
         <v>2.7</v>
       </c>
-      <c r="F3" s="6">
+      <c r="G3" s="6">
         <v>200</v>
       </c>
-      <c r="G3" s="10">
-        <v>20</v>
-      </c>
       <c r="H3" s="10">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="I3" s="10">
-        <v>5</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="J3" s="10">
+        <v>5</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" s="8" t="s">
         <v>18</v>
       </c>
       <c r="B4" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="5" t="s">
+      <c r="C4" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="6">
+      <c r="F4" s="6">
         <v>3</v>
       </c>
-      <c r="F4" s="6">
+      <c r="G4" s="6">
         <v>200</v>
       </c>
-      <c r="G4" s="10">
-        <v>20</v>
-      </c>
       <c r="H4" s="10">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="I4" s="10">
-        <v>5</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="J4" s="10">
+        <v>5</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" s="8" t="s">
         <v>30</v>
       </c>
       <c r="B5" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>5</v>
+      <c r="C5" s="11" t="s">
+        <v>69</v>
       </c>
       <c r="D5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="3">
+      <c r="F5" s="3">
         <v>3.2</v>
       </c>
-      <c r="F5" s="6">
+      <c r="G5" s="6">
         <v>200</v>
       </c>
-      <c r="G5" s="10">
-        <v>20</v>
-      </c>
       <c r="H5" s="10">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="I5" s="10">
-        <v>5</v>
-      </c>
-      <c r="J5" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="J5" s="10">
+        <v>5</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" s="8" t="s">
         <v>31</v>
       </c>
       <c r="B6" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>5</v>
+      <c r="C6" s="11" t="s">
+        <v>69</v>
       </c>
       <c r="D6" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="5">
+      <c r="F6" s="5">
         <v>2.8</v>
       </c>
-      <c r="F6" s="6">
+      <c r="G6" s="6">
         <v>200</v>
       </c>
-      <c r="G6" s="10">
-        <v>20</v>
-      </c>
       <c r="H6" s="10">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="I6" s="10">
-        <v>5</v>
-      </c>
-      <c r="J6" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="J6" s="10">
+        <v>5</v>
+      </c>
+      <c r="K6" s="5" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2029,7 +2045,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/cea/databases/CH/assemblies/SUPPLY.xlsx
+++ b/cea/databases/CH/assemblies/SUPPLY.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luis.santos\Documents\CityEnergyAnalyst\CityEnergyAnalyst\cea\databases\CH\assemblies\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fonseca/Documents/GitHub/CityEnergyAnalyst/cea/databases/CH/assemblies/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3821968-9711-4B11-85C3-4FDA7D5D5F1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83A0A074-4B62-C947-93C7-D569CBF5568A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="993" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="35280" yWindow="-8460" windowWidth="33540" windowHeight="15840" tabRatio="993" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HEATING" sheetId="22" r:id="rId1"/>
@@ -95,7 +95,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="80">
   <si>
     <t>Description</t>
   </si>
@@ -163,148 +163,178 @@
     <t>CITY</t>
   </si>
   <si>
+    <t>CAPEX_USD2015kW</t>
+  </si>
+  <si>
+    <t>heatpump - air/air</t>
+  </si>
+  <si>
+    <t>district heating - natural gas-fired boiler</t>
+  </si>
+  <si>
+    <t>district heating - heatpump - soil/water</t>
+  </si>
+  <si>
+    <t>district heating - heat pump - water/water</t>
+  </si>
+  <si>
+    <t>district cooling  - Lakewater/water</t>
+  </si>
+  <si>
+    <t>district cooling  - air/air</t>
+  </si>
+  <si>
+    <t>Connolly et al. (2013). Costs in the EU boiler &lt;25 kW)</t>
+  </si>
+  <si>
+    <t>LT_yr</t>
+  </si>
+  <si>
+    <t>O&amp;M_%</t>
+  </si>
+  <si>
+    <t>IR_%</t>
+  </si>
+  <si>
+    <t>SUPPLY_HEATING_AS1</t>
+  </si>
+  <si>
+    <t>SUPPLY_HEATING_AS0</t>
+  </si>
+  <si>
+    <t>SUPPLY_HEATING_AS2</t>
+  </si>
+  <si>
+    <t>SUPPLY_HEATING_AS3</t>
+  </si>
+  <si>
+    <t>SUPPLY_HEATING_AS4</t>
+  </si>
+  <si>
+    <t>SUPPLY_HEATING_AS5</t>
+  </si>
+  <si>
+    <t>SUPPLY_HEATING_AS6</t>
+  </si>
+  <si>
+    <t>SUPPLY_HEATING_AS7</t>
+  </si>
+  <si>
+    <t>SUPPLY_HEATING_AS8</t>
+  </si>
+  <si>
+    <t>SUPPLY_HEATING_AS9</t>
+  </si>
+  <si>
+    <t>SUPPLY_HEATING_AS10</t>
+  </si>
+  <si>
+    <t>SUPPLY_HEATING_AS11</t>
+  </si>
+  <si>
+    <t>SUPPLY_HOTWATER_AS1</t>
+  </si>
+  <si>
+    <t>SUPPLY_HOTWATER_AS0</t>
+  </si>
+  <si>
+    <t>SUPPLY_HOTWATER_AS2</t>
+  </si>
+  <si>
+    <t>SUPPLY_HOTWATER_AS3</t>
+  </si>
+  <si>
+    <t>SUPPLY_HOTWATER_AS4</t>
+  </si>
+  <si>
+    <t>SUPPLY_HOTWATER_AS5</t>
+  </si>
+  <si>
+    <t>SUPPLY_HOTWATER_AS6</t>
+  </si>
+  <si>
+    <t>SUPPLY_HOTWATER_AS7</t>
+  </si>
+  <si>
+    <t>SUPPLY_HOTWATER_AS8</t>
+  </si>
+  <si>
+    <t>SUPPLY_HOTWATER_AS9</t>
+  </si>
+  <si>
+    <t>SUPPLY_HOTWATER_AS10</t>
+  </si>
+  <si>
+    <t>SUPPLY_HOTWATER_AS11</t>
+  </si>
+  <si>
+    <t>SUPPLY_COOLING_AS0</t>
+  </si>
+  <si>
+    <t>SUPPLY_COOLING_AS1</t>
+  </si>
+  <si>
+    <t>SUPPLY_COOLING_AS2</t>
+  </si>
+  <si>
+    <t>SUPPLY_COOLING_AS3</t>
+  </si>
+  <si>
+    <t>SUPPLY_COOLING_AS4</t>
+  </si>
+  <si>
+    <t>SUPPLY_ELECTRICITY_AS1</t>
+  </si>
+  <si>
+    <t>SUPPLY_ELECTRICITY_AS0</t>
+  </si>
+  <si>
+    <t>Asuming 2000 USD for a 12kW boiler</t>
+  </si>
+  <si>
+    <t>system</t>
+  </si>
+  <si>
+    <t>COOLING</t>
+  </si>
+  <si>
+    <t>scale2</t>
+  </si>
+  <si>
+    <t>feedstock2</t>
+  </si>
+  <si>
+    <t>scale1</t>
+  </si>
+  <si>
+    <t>feedstock1</t>
+  </si>
+  <si>
+    <t>efficiency</t>
+  </si>
+  <si>
+    <t>efficiency1</t>
+  </si>
+  <si>
+    <t>efficiency2</t>
+  </si>
+  <si>
+    <t>area_pv</t>
+  </si>
+  <si>
+    <t>Swiss consumer energy mix  + 20m2  PV onsite</t>
+  </si>
+  <si>
+    <t>SUPPLY_ELECTRICITY_AS2</t>
+  </si>
+  <si>
+    <t>SOLAR</t>
+  </si>
+  <si>
+    <t>scale</t>
+  </si>
+  <si>
     <t>feedstock</t>
-  </si>
-  <si>
-    <t>scale</t>
-  </si>
-  <si>
-    <t>efficiency</t>
-  </si>
-  <si>
-    <t>CAPEX_USD2015kW</t>
-  </si>
-  <si>
-    <t>heatpump - air/air</t>
-  </si>
-  <si>
-    <t>district heating - natural gas-fired boiler</t>
-  </si>
-  <si>
-    <t>district heating - heatpump - soil/water</t>
-  </si>
-  <si>
-    <t>district heating - heat pump - water/water</t>
-  </si>
-  <si>
-    <t>district cooling  - Lakewater/water</t>
-  </si>
-  <si>
-    <t>district cooling  - air/air</t>
-  </si>
-  <si>
-    <t>Connolly et al. (2013). Costs in the EU boiler &lt;25 kW)</t>
-  </si>
-  <si>
-    <t>LT_yr</t>
-  </si>
-  <si>
-    <t>O&amp;M_%</t>
-  </si>
-  <si>
-    <t>IR_%</t>
-  </si>
-  <si>
-    <t>SUPPLY_HEATING_AS1</t>
-  </si>
-  <si>
-    <t>SUPPLY_HEATING_AS0</t>
-  </si>
-  <si>
-    <t>SUPPLY_HEATING_AS2</t>
-  </si>
-  <si>
-    <t>SUPPLY_HEATING_AS3</t>
-  </si>
-  <si>
-    <t>SUPPLY_HEATING_AS4</t>
-  </si>
-  <si>
-    <t>SUPPLY_HEATING_AS5</t>
-  </si>
-  <si>
-    <t>SUPPLY_HEATING_AS6</t>
-  </si>
-  <si>
-    <t>SUPPLY_HEATING_AS7</t>
-  </si>
-  <si>
-    <t>SUPPLY_HEATING_AS8</t>
-  </si>
-  <si>
-    <t>SUPPLY_HEATING_AS9</t>
-  </si>
-  <si>
-    <t>SUPPLY_HEATING_AS10</t>
-  </si>
-  <si>
-    <t>SUPPLY_HEATING_AS11</t>
-  </si>
-  <si>
-    <t>SUPPLY_HOTWATER_AS1</t>
-  </si>
-  <si>
-    <t>SUPPLY_HOTWATER_AS0</t>
-  </si>
-  <si>
-    <t>SUPPLY_HOTWATER_AS2</t>
-  </si>
-  <si>
-    <t>SUPPLY_HOTWATER_AS3</t>
-  </si>
-  <si>
-    <t>SUPPLY_HOTWATER_AS4</t>
-  </si>
-  <si>
-    <t>SUPPLY_HOTWATER_AS5</t>
-  </si>
-  <si>
-    <t>SUPPLY_HOTWATER_AS6</t>
-  </si>
-  <si>
-    <t>SUPPLY_HOTWATER_AS7</t>
-  </si>
-  <si>
-    <t>SUPPLY_HOTWATER_AS8</t>
-  </si>
-  <si>
-    <t>SUPPLY_HOTWATER_AS9</t>
-  </si>
-  <si>
-    <t>SUPPLY_HOTWATER_AS10</t>
-  </si>
-  <si>
-    <t>SUPPLY_HOTWATER_AS11</t>
-  </si>
-  <si>
-    <t>SUPPLY_COOLING_AS0</t>
-  </si>
-  <si>
-    <t>SUPPLY_COOLING_AS1</t>
-  </si>
-  <si>
-    <t>SUPPLY_COOLING_AS2</t>
-  </si>
-  <si>
-    <t>SUPPLY_COOLING_AS3</t>
-  </si>
-  <si>
-    <t>SUPPLY_COOLING_AS4</t>
-  </si>
-  <si>
-    <t>SUPPLY_ELECTRICITY_AS1</t>
-  </si>
-  <si>
-    <t>SUPPLY_ELECTRICITY_AS0</t>
-  </si>
-  <si>
-    <t>Asuming 2000 USD for a 12kW boiler</t>
-  </si>
-  <si>
-    <t>system</t>
-  </si>
-  <si>
-    <t>COOLING</t>
   </si>
 </sst>
 </file>
@@ -451,7 +481,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -465,20 +495,20 @@
     <xf numFmtId="164" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -487,12 +517,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Normal 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="Normal 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -926,23 +959,23 @@
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B13"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="92.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.1796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7265625" customWidth="1"/>
-    <col min="8" max="8" width="12.7265625" customWidth="1"/>
-    <col min="10" max="10" width="51.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="92.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" customWidth="1"/>
+    <col min="10" max="10" width="51.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -950,36 +983,36 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="G1" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>3</v>
@@ -1006,12 +1039,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>6</v>
@@ -1035,15 +1068,15 @@
         <v>5</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>7</v>
@@ -1067,15 +1100,15 @@
         <v>5</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
         <v>14</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>4</v>
@@ -1099,15 +1132,15 @@
         <v>5</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
         <v>15</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>5</v>
@@ -1134,12 +1167,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>8</v>
@@ -1166,12 +1199,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
         <v>17</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>5</v>
@@ -1198,12 +1231,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>5</v>
@@ -1230,12 +1263,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
         <v>18</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>5</v>
@@ -1262,12 +1295,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>4</v>
@@ -1294,12 +1327,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>5</v>
@@ -1326,12 +1359,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>5</v>
@@ -1369,23 +1402,23 @@
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="F1" sqref="F1:H1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="92.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.1796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7265625" customWidth="1"/>
-    <col min="8" max="8" width="12.7265625" customWidth="1"/>
-    <col min="10" max="10" width="51.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="92.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" customWidth="1"/>
+    <col min="10" max="10" width="51.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -1393,36 +1426,36 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="G1" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>3</v>
@@ -1449,12 +1482,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>6</v>
@@ -1478,15 +1511,15 @@
         <v>5</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>7</v>
@@ -1510,15 +1543,15 @@
         <v>5</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
         <v>14</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>4</v>
@@ -1542,15 +1575,15 @@
         <v>5</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
         <v>15</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>5</v>
@@ -1574,15 +1607,15 @@
         <v>5</v>
       </c>
       <c r="J6" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>8</v>
@@ -1609,12 +1642,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
         <v>17</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>5</v>
@@ -1641,12 +1674,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>5</v>
@@ -1673,12 +1706,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
         <v>18</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>5</v>
@@ -1705,12 +1738,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>4</v>
@@ -1737,12 +1770,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>5</v>
@@ -1769,12 +1802,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>5</v>
@@ -1811,25 +1844,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="92.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.1796875" customWidth="1"/>
-    <col min="4" max="4" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.1796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.453125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7265625" customWidth="1"/>
-    <col min="9" max="9" width="12.7265625" customWidth="1"/>
-    <col min="11" max="11" width="51.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="92.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.6640625" customWidth="1"/>
+    <col min="9" max="9" width="12.6640625" customWidth="1"/>
+    <col min="11" max="11" width="51.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -1837,39 +1870,39 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="H1" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>3</v>
@@ -1899,15 +1932,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>5</v>
@@ -1934,15 +1967,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
         <v>18</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>5</v>
@@ -1969,15 +2002,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>5</v>
@@ -2004,15 +2037,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>5</v>
@@ -2046,26 +2079,29 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="92.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.1796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7265625" customWidth="1"/>
-    <col min="8" max="8" width="12.7265625" customWidth="1"/>
-    <col min="10" max="10" width="51.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="92.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.1640625" customWidth="1"/>
+    <col min="9" max="9" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.6640625" customWidth="1"/>
+    <col min="11" max="11" width="12.6640625" customWidth="1"/>
+    <col min="13" max="13" width="51.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -2073,36 +2109,48 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>3</v>
@@ -2113,28 +2161,40 @@
       <c r="E2" s="4">
         <v>0</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="4">
         <v>0</v>
       </c>
-      <c r="G2" s="10">
-        <v>20</v>
-      </c>
-      <c r="H2" s="10">
-        <v>1</v>
-      </c>
-      <c r="I2" s="10">
-        <v>5</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I2" s="4">
+        <v>0</v>
+      </c>
+      <c r="J2" s="4">
+        <v>0</v>
+      </c>
+      <c r="K2" s="10">
+        <v>20</v>
+      </c>
+      <c r="L2" s="10">
+        <v>1</v>
+      </c>
+      <c r="M2" s="10">
+        <v>5</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>20</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>5</v>
@@ -2145,19 +2205,75 @@
       <c r="E3" s="7">
         <v>0.99</v>
       </c>
-      <c r="F3" s="6">
-        <v>1</v>
-      </c>
-      <c r="G3" s="10">
-        <v>20</v>
-      </c>
-      <c r="H3" s="10">
-        <v>1</v>
-      </c>
-      <c r="I3" s="10">
-        <v>5</v>
-      </c>
-      <c r="J3" s="5" t="s">
+      <c r="F3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="4">
+        <v>0</v>
+      </c>
+      <c r="I3" s="4">
+        <v>0</v>
+      </c>
+      <c r="J3" s="6">
+        <v>1</v>
+      </c>
+      <c r="K3" s="10">
+        <v>20</v>
+      </c>
+      <c r="L3" s="10">
+        <v>1</v>
+      </c>
+      <c r="M3" s="10">
+        <v>5</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A4" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0.99</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="3">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="I4" s="13">
+        <v>20</v>
+      </c>
+      <c r="J4" s="6">
+        <v>2000</v>
+      </c>
+      <c r="K4" s="10">
+        <v>20</v>
+      </c>
+      <c r="L4" s="10">
+        <v>1</v>
+      </c>
+      <c r="M4" s="10">
+        <v>5</v>
+      </c>
+      <c r="N4" s="9" t="s">
         <v>10</v>
       </c>
     </row>

--- a/cea/databases/CH/assemblies/SUPPLY.xlsx
+++ b/cea/databases/CH/assemblies/SUPPLY.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fonseca/Documents/GitHub/CityEnergyAnalyst/cea/databases/CH/assemblies/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83A0A074-4B62-C947-93C7-D569CBF5568A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A7D7C42-56D6-D146-B153-C1AF2F6D745C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35280" yWindow="-8460" windowWidth="33540" windowHeight="15840" tabRatio="993" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17340" tabRatio="993" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HEATING" sheetId="22" r:id="rId1"/>
@@ -95,7 +95,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="75">
   <si>
     <t>Description</t>
   </si>
@@ -298,27 +298,9 @@
     <t>COOLING</t>
   </si>
   <si>
-    <t>scale2</t>
-  </si>
-  <si>
-    <t>feedstock2</t>
-  </si>
-  <si>
-    <t>scale1</t>
-  </si>
-  <si>
-    <t>feedstock1</t>
-  </si>
-  <si>
     <t>efficiency</t>
   </si>
   <si>
-    <t>efficiency1</t>
-  </si>
-  <si>
-    <t>efficiency2</t>
-  </si>
-  <si>
     <t>area_pv</t>
   </si>
   <si>
@@ -328,13 +310,16 @@
     <t>SUPPLY_ELECTRICITY_AS2</t>
   </si>
   <si>
-    <t>SOLAR</t>
-  </si>
-  <si>
     <t>scale</t>
   </si>
   <si>
     <t>feedstock</t>
+  </si>
+  <si>
+    <t>efficiency_pv</t>
+  </si>
+  <si>
+    <t>CAPEX_PV_USD2015kW</t>
   </si>
 </sst>
 </file>
@@ -983,13 +968,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>22</v>
@@ -1426,13 +1411,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>22</v>
@@ -1873,13 +1858,13 @@
         <v>65</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>22</v>
@@ -2079,10 +2064,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:N4"/>
+  <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="K1" sqref="A1:K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2091,17 +2076,16 @@
     <col min="2" max="2" width="23.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.1640625" customWidth="1"/>
-    <col min="9" max="9" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.6640625" customWidth="1"/>
-    <col min="11" max="11" width="12.6640625" customWidth="1"/>
-    <col min="13" max="13" width="51.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.1640625" customWidth="1"/>
+    <col min="7" max="7" width="11.1640625" customWidth="1"/>
+    <col min="8" max="8" width="11.6640625" customWidth="1"/>
+    <col min="9" max="9" width="19.6640625" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" customWidth="1"/>
+    <col min="12" max="12" width="51.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -2109,19 +2093,19 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>67</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>73</v>
@@ -2130,22 +2114,19 @@
         <v>74</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="N1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
         <v>9</v>
       </c>
@@ -2161,11 +2142,11 @@
       <c r="E2" s="4">
         <v>0</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>3</v>
+      <c r="F2" s="4">
+        <v>0</v>
+      </c>
+      <c r="G2" s="4">
+        <v>0</v>
       </c>
       <c r="H2" s="4">
         <v>0</v>
@@ -2173,23 +2154,20 @@
       <c r="I2" s="4">
         <v>0</v>
       </c>
-      <c r="J2" s="4">
-        <v>0</v>
+      <c r="J2" s="10">
+        <v>20</v>
       </c>
       <c r="K2" s="10">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="L2" s="10">
-        <v>1</v>
-      </c>
-      <c r="M2" s="10">
-        <v>5</v>
-      </c>
-      <c r="N2" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>20</v>
       </c>
@@ -2205,40 +2183,37 @@
       <c r="E3" s="7">
         <v>0.99</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>3</v>
+      <c r="F3" s="6">
+        <v>1</v>
+      </c>
+      <c r="G3" s="4">
+        <v>0</v>
       </c>
       <c r="H3" s="4">
         <v>0</v>
       </c>
-      <c r="I3" s="4">
+      <c r="I3" s="6">
         <v>0</v>
       </c>
-      <c r="J3" s="6">
-        <v>1</v>
+      <c r="J3" s="10">
+        <v>20</v>
       </c>
       <c r="K3" s="10">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="L3" s="10">
-        <v>1</v>
-      </c>
-      <c r="M3" s="10">
-        <v>5</v>
-      </c>
-      <c r="N3" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>5</v>
@@ -2249,31 +2224,28 @@
       <c r="E4" s="3">
         <v>0.99</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>12</v>
+      <c r="F4" s="6">
+        <v>1</v>
+      </c>
+      <c r="G4" s="13">
+        <v>20</v>
       </c>
       <c r="H4" s="3">
         <v>0.14000000000000001</v>
       </c>
-      <c r="I4" s="13">
-        <v>20</v>
-      </c>
-      <c r="J4" s="6">
+      <c r="I4" s="6">
         <v>2000</v>
       </c>
+      <c r="J4" s="10">
+        <v>20</v>
+      </c>
       <c r="K4" s="10">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="L4" s="10">
-        <v>1</v>
-      </c>
-      <c r="M4" s="10">
-        <v>5</v>
-      </c>
-      <c r="N4" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="M4" s="9" t="s">
         <v>10</v>
       </c>
     </row>

--- a/cea/databases/CH/assemblies/SUPPLY.xlsx
+++ b/cea/databases/CH/assemblies/SUPPLY.xlsx
@@ -8,21 +8,35 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fonseca/Documents/GitHub/CityEnergyAnalyst/cea/databases/CH/assemblies/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A7D7C42-56D6-D146-B153-C1AF2F6D745C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A90100F-4D28-AC4D-ABB6-FBD66AD2B389}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17340" tabRatio="993" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="120" yWindow="760" windowWidth="22900" windowHeight="12980" tabRatio="993" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HEATING" sheetId="22" r:id="rId1"/>
     <sheet name="HOT_WATER" sheetId="25" r:id="rId2"/>
     <sheet name="COOLING" sheetId="23" r:id="rId3"/>
     <sheet name="ELECTRICITY" sheetId="24" r:id="rId4"/>
+    <sheet name="ELECTRICITY_PV" sheetId="26" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="__xlfn_AGGREGATE">#N/A</definedName>
     <definedName name="__xlfn_STDEV_S">#N/A</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -95,7 +109,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="76">
   <si>
     <t>Description</t>
   </si>
@@ -301,25 +315,28 @@
     <t>efficiency</t>
   </si>
   <si>
-    <t>area_pv</t>
-  </si>
-  <si>
-    <t>Swiss consumer energy mix  + 20m2  PV onsite</t>
-  </si>
-  <si>
-    <t>SUPPLY_ELECTRICITY_AS2</t>
-  </si>
-  <si>
     <t>scale</t>
   </si>
   <si>
     <t>feedstock</t>
   </si>
   <si>
-    <t>efficiency_pv</t>
-  </si>
-  <si>
-    <t>CAPEX_PV_USD2015kW</t>
+    <t>SUPPLY_ELECTRICITY_PV_AS0</t>
+  </si>
+  <si>
+    <t>SUPPLY_ELECTRICITY_PV_AS1</t>
+  </si>
+  <si>
+    <t>20 m2 Fotovoltaic installation Moncrytalline</t>
+  </si>
+  <si>
+    <t>PV1</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>component</t>
   </si>
 </sst>
 </file>
@@ -466,7 +483,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -501,9 +518,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -968,10 +982,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>67</v>
@@ -1411,10 +1425,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>67</v>
@@ -1830,7 +1844,7 @@
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1858,10 +1872,10 @@
         <v>65</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>67</v>
@@ -2064,28 +2078,25 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K1" sqref="A1:K4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="92.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.1640625" customWidth="1"/>
-    <col min="7" max="7" width="11.1640625" customWidth="1"/>
-    <col min="8" max="8" width="11.6640625" customWidth="1"/>
-    <col min="9" max="9" width="19.6640625" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" customWidth="1"/>
-    <col min="12" max="12" width="51.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" customWidth="1"/>
+    <col min="9" max="9" width="4.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -2093,10 +2104,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>67</v>
@@ -2105,28 +2116,19 @@
         <v>22</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>73</v>
+        <v>31</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>74</v>
+        <v>32</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="M1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
         <v>9</v>
       </c>
@@ -2145,29 +2147,20 @@
       <c r="F2" s="4">
         <v>0</v>
       </c>
-      <c r="G2" s="4">
-        <v>0</v>
-      </c>
-      <c r="H2" s="4">
-        <v>0</v>
-      </c>
-      <c r="I2" s="4">
-        <v>0</v>
-      </c>
-      <c r="J2" s="10">
-        <v>20</v>
-      </c>
-      <c r="K2" s="10">
-        <v>1</v>
-      </c>
-      <c r="L2" s="10">
-        <v>5</v>
-      </c>
-      <c r="M2" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="G2" s="10">
+        <v>20</v>
+      </c>
+      <c r="H2" s="10">
+        <v>1</v>
+      </c>
+      <c r="I2" s="10">
+        <v>5</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>20</v>
       </c>
@@ -2186,70 +2179,93 @@
       <c r="F3" s="6">
         <v>1</v>
       </c>
-      <c r="G3" s="4">
-        <v>0</v>
-      </c>
-      <c r="H3" s="4">
-        <v>0</v>
-      </c>
-      <c r="I3" s="6">
-        <v>0</v>
-      </c>
-      <c r="J3" s="10">
-        <v>20</v>
-      </c>
-      <c r="K3" s="10">
-        <v>1</v>
-      </c>
-      <c r="L3" s="10">
-        <v>5</v>
-      </c>
-      <c r="M3" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="3">
-        <v>0.99</v>
-      </c>
-      <c r="F4" s="6">
-        <v>1</v>
-      </c>
-      <c r="G4" s="13">
-        <v>20</v>
-      </c>
-      <c r="H4" s="3">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="I4" s="6">
-        <v>2000</v>
-      </c>
-      <c r="J4" s="10">
-        <v>20</v>
-      </c>
-      <c r="K4" s="10">
-        <v>1</v>
-      </c>
-      <c r="L4" s="10">
-        <v>5</v>
-      </c>
-      <c r="M4" s="9" t="s">
+      <c r="G3" s="10">
+        <v>20</v>
+      </c>
+      <c r="H3" s="10">
+        <v>1</v>
+      </c>
+      <c r="I3" s="10">
+        <v>5</v>
+      </c>
+      <c r="J3" s="5" t="s">
         <v>10</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA85FBFF-CAF7-3F46-9739-7A82A2DD17E7}">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="135" zoomScaleNormal="135" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="41" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="35.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" customWidth="1"/>
+    <col min="4" max="4" width="12.83203125" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D3" s="6">
+        <v>20</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/cea/databases/CH/assemblies/SUPPLY.xlsx
+++ b/cea/databases/CH/assemblies/SUPPLY.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fonseca/Documents/GitHub/CityEnergyAnalyst/cea/databases/CH/assemblies/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A90100F-4D28-AC4D-ABB6-FBD66AD2B389}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{996954AF-3DBA-EC42-86BF-237F055C90E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="760" windowWidth="22900" windowHeight="12980" tabRatio="993" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -333,10 +333,10 @@
     <t>PV1</t>
   </si>
   <si>
-    <t>area</t>
-  </si>
-  <si>
     <t>component</t>
+  </si>
+  <si>
+    <t>area_pv</t>
   </si>
 </sst>
 </file>
@@ -2202,7 +2202,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="135" zoomScaleNormal="135" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="41" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2222,10 +2222,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>74</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>

--- a/cea/databases/CH/assemblies/SUPPLY.xlsx
+++ b/cea/databases/CH/assemblies/SUPPLY.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fonseca/Documents/GitHub/CityEnergyAnalyst/cea/databases/CH/assemblies/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{996954AF-3DBA-EC42-86BF-237F055C90E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FFB78AF-E6F8-3A4F-A617-3A5D294D42CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="760" windowWidth="22900" windowHeight="12980" tabRatio="993" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="37780" yWindow="-6420" windowWidth="24880" windowHeight="12980" tabRatio="993" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HEATING" sheetId="22" r:id="rId1"/>
@@ -109,7 +109,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="75">
   <si>
     <t>Description</t>
   </si>
@@ -330,13 +330,10 @@
     <t>20 m2 Fotovoltaic installation Moncrytalline</t>
   </si>
   <si>
-    <t>PV1</t>
-  </si>
-  <si>
-    <t>component</t>
-  </si>
-  <si>
     <t>area_pv</t>
+  </si>
+  <si>
+    <t>SOLAR</t>
   </si>
 </sst>
 </file>
@@ -2199,10 +2196,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA85FBFF-CAF7-3F46-9739-7A82A2DD17E7}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="135" zoomScaleNormal="135" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="41" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2212,9 +2209,10 @@
     <col min="3" max="3" width="10.33203125" customWidth="1"/>
     <col min="4" max="4" width="12.83203125" customWidth="1"/>
     <col min="5" max="5" width="14.6640625" customWidth="1"/>
+    <col min="6" max="6" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -2222,46 +2220,100 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="11">
         <v>0</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F2" s="4">
+        <v>0</v>
+      </c>
+      <c r="G2" s="4">
+        <v>0</v>
+      </c>
+      <c r="H2" s="3">
+        <v>20</v>
+      </c>
+      <c r="I2" s="3">
+        <v>1.3</v>
+      </c>
+      <c r="J2" s="3">
+        <v>1.3</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>72</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="C3" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="D3" s="6">
-        <v>20</v>
-      </c>
-      <c r="E3" s="5" t="s">
+      <c r="C3" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="11">
+        <v>0.16</v>
+      </c>
+      <c r="F3" s="6">
+        <v>20</v>
+      </c>
+      <c r="G3" s="6">
+        <v>1</v>
+      </c>
+      <c r="H3" s="5">
+        <v>20</v>
+      </c>
+      <c r="I3" s="5">
+        <v>1.3</v>
+      </c>
+      <c r="J3" s="3">
+        <v>1.3</v>
+      </c>
+      <c r="K3" s="5" t="s">
         <v>10</v>
       </c>
     </row>

--- a/cea/databases/CH/assemblies/SUPPLY.xlsx
+++ b/cea/databases/CH/assemblies/SUPPLY.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fonseca/Documents/GitHub/CityEnergyAnalyst/cea/databases/CH/assemblies/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FFB78AF-E6F8-3A4F-A617-3A5D294D42CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC1937CF-78D3-DA44-B82D-6274BDAF7BDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="37780" yWindow="-6420" windowWidth="24880" windowHeight="12980" tabRatio="993" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2199,7 +2199,7 @@
   <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="135" zoomScaleNormal="135" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="41" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2208,8 +2208,9 @@
     <col min="2" max="2" width="23.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.33203125" customWidth="1"/>
     <col min="4" max="4" width="12.83203125" customWidth="1"/>
-    <col min="5" max="5" width="14.6640625" customWidth="1"/>
-    <col min="6" max="6" width="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.83203125" customWidth="1"/>
+    <col min="7" max="7" width="16.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
@@ -2302,7 +2303,7 @@
         <v>20</v>
       </c>
       <c r="G3" s="6">
-        <v>1</v>
+        <v>2000</v>
       </c>
       <c r="H3" s="5">
         <v>20</v>

--- a/cea/databases/CH/assemblies/SUPPLY.xlsx
+++ b/cea/databases/CH/assemblies/SUPPLY.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20399"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luis.santos\Documents\CityEnergyAnalyst\CityEnergyAnalyst\cea\databases\CH\assemblies\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nimathia\Documents\GitHub\CityEnergyAnalyst\CityEnergyAnalyst\cea\databases\CH\assemblies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3821968-9711-4B11-85C3-4FDA7D5D5F1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68ED9172-88B2-478F-A025-9E665100A512}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="993" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="993" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HEATING" sheetId="22" r:id="rId1"/>
@@ -925,8 +925,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1308,7 +1308,7 @@
         <v>19</v>
       </c>
       <c r="E12" s="6">
-        <v>0.6</v>
+        <v>3</v>
       </c>
       <c r="F12" s="6">
         <v>100</v>
@@ -1811,7 +1811,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>

--- a/cea/databases/CH/assemblies/SUPPLY.xlsx
+++ b/cea/databases/CH/assemblies/SUPPLY.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20399"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nimathia\Documents\GitHub\CityEnergyAnalyst\CityEnergyAnalyst\cea\databases\CH\assemblies\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zshi/Documents/GitHub/CityEnergyAnalyst/cea/databases/CH/assemblies/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68ED9172-88B2-478F-A025-9E665100A512}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AB2C5F3-0B9A-1048-96B2-6097B17971D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="993" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9660" yWindow="29560" windowWidth="29040" windowHeight="18880" tabRatio="993" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HEATING" sheetId="22" r:id="rId1"/>
@@ -95,7 +95,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="84">
   <si>
     <t>Description</t>
   </si>
@@ -305,6 +305,48 @@
   </si>
   <si>
     <t>COOLING</t>
+  </si>
+  <si>
+    <t>primary_components</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>BO2</t>
+  </si>
+  <si>
+    <t>BO4</t>
+  </si>
+  <si>
+    <t>BO1</t>
+  </si>
+  <si>
+    <t>BO5</t>
+  </si>
+  <si>
+    <t>BO6</t>
+  </si>
+  <si>
+    <t>HP1</t>
+  </si>
+  <si>
+    <t>HP3</t>
+  </si>
+  <si>
+    <t>HP2</t>
+  </si>
+  <si>
+    <t>secondary_components</t>
+  </si>
+  <si>
+    <t>tertiary_components</t>
+  </si>
+  <si>
+    <t>CH2</t>
+  </si>
+  <si>
+    <t>CT1</t>
   </si>
 </sst>
 </file>
@@ -465,20 +507,20 @@
     <xf numFmtId="164" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -923,26 +965,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:E1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="92.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.1796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7265625" customWidth="1"/>
-    <col min="8" max="8" width="12.7265625" customWidth="1"/>
-    <col min="10" max="10" width="51.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="92.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="20.83203125" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.6640625" customWidth="1"/>
+    <col min="11" max="11" width="12.6640625" customWidth="1"/>
+    <col min="13" max="13" width="51.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -950,411 +993,528 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="4">
+      <c r="H2" s="4">
         <v>0</v>
       </c>
-      <c r="F2" s="4">
+      <c r="I2" s="4">
         <v>0</v>
       </c>
-      <c r="G2" s="10">
-        <v>20</v>
-      </c>
-      <c r="H2" s="10">
-        <v>1</v>
-      </c>
-      <c r="I2" s="10">
-        <v>5</v>
-      </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="10">
+        <v>20</v>
+      </c>
+      <c r="K2" s="10">
+        <v>1</v>
+      </c>
+      <c r="L2" s="10">
+        <v>5</v>
+      </c>
+      <c r="M2" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="G3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="6">
+      <c r="H3" s="6">
         <v>0.8</v>
       </c>
-      <c r="F3" s="6">
+      <c r="I3" s="6">
         <v>493</v>
       </c>
-      <c r="G3" s="10">
-        <v>20</v>
-      </c>
-      <c r="H3" s="10">
-        <v>1</v>
-      </c>
-      <c r="I3" s="10">
-        <v>5</v>
-      </c>
-      <c r="J3" s="9" t="s">
+      <c r="J3" s="10">
+        <v>20</v>
+      </c>
+      <c r="K3" s="10">
+        <v>1</v>
+      </c>
+      <c r="L3" s="10">
+        <v>5</v>
+      </c>
+      <c r="M3" s="9" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="F4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="G4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="6">
+      <c r="H4" s="6">
         <v>0.6</v>
       </c>
-      <c r="F4" s="6">
+      <c r="I4" s="6">
         <v>367</v>
       </c>
-      <c r="G4" s="10">
-        <v>20</v>
-      </c>
-      <c r="H4" s="10">
-        <v>1</v>
-      </c>
-      <c r="I4" s="10">
-        <v>5</v>
-      </c>
-      <c r="J4" s="9" t="s">
+      <c r="J4" s="10">
+        <v>20</v>
+      </c>
+      <c r="K4" s="10">
+        <v>1</v>
+      </c>
+      <c r="L4" s="10">
+        <v>5</v>
+      </c>
+      <c r="M4" s="9" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
         <v>14</v>
       </c>
       <c r="B5" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="F5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="G5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="6">
+      <c r="H5" s="6">
         <v>0.8</v>
       </c>
-      <c r="F5" s="6">
+      <c r="I5" s="6">
         <v>645</v>
       </c>
-      <c r="G5" s="10">
-        <v>20</v>
-      </c>
-      <c r="H5" s="10">
-        <v>1</v>
-      </c>
-      <c r="I5" s="10">
-        <v>5</v>
-      </c>
-      <c r="J5" s="9" t="s">
+      <c r="J5" s="10">
+        <v>20</v>
+      </c>
+      <c r="K5" s="10">
+        <v>1</v>
+      </c>
+      <c r="L5" s="10">
+        <v>5</v>
+      </c>
+      <c r="M5" s="9" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
         <v>15</v>
       </c>
       <c r="B6" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="5" t="s">
+      <c r="C6" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="6">
+      <c r="H6" s="6">
         <v>0.9</v>
       </c>
-      <c r="F6" s="6">
+      <c r="I6" s="6">
         <v>200</v>
       </c>
-      <c r="G6" s="10">
-        <v>20</v>
-      </c>
-      <c r="H6" s="10">
-        <v>1</v>
-      </c>
-      <c r="I6" s="10">
-        <v>5</v>
-      </c>
-      <c r="J6" s="5" t="s">
+      <c r="J6" s="10">
+        <v>20</v>
+      </c>
+      <c r="K6" s="10">
+        <v>1</v>
+      </c>
+      <c r="L6" s="10">
+        <v>5</v>
+      </c>
+      <c r="M6" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B7" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="F7" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="G7" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="6">
+      <c r="H7" s="6">
         <v>0.6</v>
       </c>
-      <c r="F7" s="6">
+      <c r="I7" s="6">
         <v>200</v>
       </c>
-      <c r="G7" s="10">
-        <v>20</v>
-      </c>
-      <c r="H7" s="10">
-        <v>1</v>
-      </c>
-      <c r="I7" s="10">
-        <v>5</v>
-      </c>
-      <c r="J7" s="5" t="s">
+      <c r="J7" s="10">
+        <v>20</v>
+      </c>
+      <c r="K7" s="10">
+        <v>1</v>
+      </c>
+      <c r="L7" s="10">
+        <v>5</v>
+      </c>
+      <c r="M7" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
         <v>17</v>
       </c>
       <c r="B8" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="5" t="s">
+      <c r="C8" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="6">
+      <c r="H8" s="6">
         <v>4</v>
       </c>
-      <c r="F8" s="6">
+      <c r="I8" s="6">
         <v>200</v>
       </c>
-      <c r="G8" s="10">
-        <v>20</v>
-      </c>
-      <c r="H8" s="10">
-        <v>1</v>
-      </c>
-      <c r="I8" s="10">
-        <v>5</v>
-      </c>
-      <c r="J8" s="5" t="s">
+      <c r="J8" s="10">
+        <v>20</v>
+      </c>
+      <c r="K8" s="10">
+        <v>1</v>
+      </c>
+      <c r="L8" s="10">
+        <v>5</v>
+      </c>
+      <c r="M8" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
         <v>26</v>
       </c>
       <c r="B9" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" s="5" t="s">
+      <c r="C9" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G9" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="6">
+      <c r="H9" s="6">
         <v>2.7</v>
       </c>
-      <c r="F9" s="6">
+      <c r="I9" s="6">
         <v>200</v>
       </c>
-      <c r="G9" s="10">
-        <v>20</v>
-      </c>
-      <c r="H9" s="10">
-        <v>1</v>
-      </c>
-      <c r="I9" s="10">
-        <v>5</v>
-      </c>
-      <c r="J9" s="5" t="s">
+      <c r="J9" s="10">
+        <v>20</v>
+      </c>
+      <c r="K9" s="10">
+        <v>1</v>
+      </c>
+      <c r="L9" s="10">
+        <v>5</v>
+      </c>
+      <c r="M9" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
         <v>18</v>
       </c>
       <c r="B10" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" s="5" t="s">
+      <c r="C10" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G10" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="6">
+      <c r="H10" s="6">
         <v>3</v>
       </c>
-      <c r="F10" s="6">
+      <c r="I10" s="6">
         <v>200</v>
       </c>
-      <c r="G10" s="10">
-        <v>20</v>
-      </c>
-      <c r="H10" s="10">
-        <v>1</v>
-      </c>
-      <c r="I10" s="10">
-        <v>5</v>
-      </c>
-      <c r="J10" s="5" t="s">
+      <c r="J10" s="10">
+        <v>20</v>
+      </c>
+      <c r="K10" s="10">
+        <v>1</v>
+      </c>
+      <c r="L10" s="10">
+        <v>5</v>
+      </c>
+      <c r="M10" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
         <v>27</v>
       </c>
       <c r="B11" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="F11" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="G11" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="6">
+      <c r="H11" s="6">
         <v>0.6</v>
       </c>
-      <c r="F11" s="6">
+      <c r="I11" s="6">
         <v>100</v>
       </c>
-      <c r="G11" s="10">
-        <v>20</v>
-      </c>
-      <c r="H11" s="10">
-        <v>1</v>
-      </c>
-      <c r="I11" s="10">
-        <v>5</v>
-      </c>
-      <c r="J11" s="5" t="s">
+      <c r="J11" s="10">
+        <v>20</v>
+      </c>
+      <c r="K11" s="10">
+        <v>1</v>
+      </c>
+      <c r="L11" s="10">
+        <v>5</v>
+      </c>
+      <c r="M11" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
         <v>28</v>
       </c>
       <c r="B12" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" s="2" t="s">
+      <c r="C12" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G12" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E12" s="6">
+      <c r="H12" s="6">
         <v>3</v>
       </c>
-      <c r="F12" s="6">
+      <c r="I12" s="6">
         <v>100</v>
       </c>
-      <c r="G12" s="10">
-        <v>20</v>
-      </c>
-      <c r="H12" s="10">
-        <v>1</v>
-      </c>
-      <c r="I12" s="10">
-        <v>5</v>
-      </c>
-      <c r="J12" s="5" t="s">
+      <c r="J12" s="10">
+        <v>20</v>
+      </c>
+      <c r="K12" s="10">
+        <v>1</v>
+      </c>
+      <c r="L12" s="10">
+        <v>5</v>
+      </c>
+      <c r="M12" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
         <v>29</v>
       </c>
       <c r="B13" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" s="2" t="s">
+      <c r="C13" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G13" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E13" s="6">
+      <c r="H13" s="6">
         <v>2.7</v>
       </c>
-      <c r="F13" s="6">
+      <c r="I13" s="6">
         <v>100</v>
       </c>
-      <c r="G13" s="10">
-        <v>20</v>
-      </c>
-      <c r="H13" s="10">
-        <v>1</v>
-      </c>
-      <c r="I13" s="10">
-        <v>5</v>
-      </c>
-      <c r="J13" s="5" t="s">
+      <c r="J13" s="10">
+        <v>20</v>
+      </c>
+      <c r="K13" s="10">
+        <v>1</v>
+      </c>
+      <c r="L13" s="10">
+        <v>5</v>
+      </c>
+      <c r="M13" s="5" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1372,20 +1532,20 @@
       <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="92.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.1796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7265625" customWidth="1"/>
-    <col min="8" max="8" width="12.7265625" customWidth="1"/>
-    <col min="10" max="10" width="51.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="92.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" customWidth="1"/>
+    <col min="10" max="10" width="51.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -1417,7 +1577,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
         <v>9</v>
       </c>
@@ -1449,7 +1609,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>11</v>
       </c>
@@ -1481,7 +1641,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
         <v>13</v>
       </c>
@@ -1513,7 +1673,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
         <v>14</v>
       </c>
@@ -1545,7 +1705,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
         <v>15</v>
       </c>
@@ -1577,7 +1737,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
         <v>16</v>
       </c>
@@ -1609,7 +1769,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
         <v>17</v>
       </c>
@@ -1641,7 +1801,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
         <v>26</v>
       </c>
@@ -1673,7 +1833,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
         <v>18</v>
       </c>
@@ -1705,7 +1865,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
         <v>27</v>
       </c>
@@ -1737,7 +1897,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
         <v>28</v>
       </c>
@@ -1769,7 +1929,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
         <v>29</v>
       </c>
@@ -1809,27 +1969,27 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="C1" sqref="C1:E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="92.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.1796875" customWidth="1"/>
-    <col min="4" max="4" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.1796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.453125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7265625" customWidth="1"/>
-    <col min="9" max="9" width="12.7265625" customWidth="1"/>
-    <col min="11" max="11" width="51.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="92.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="21.1640625" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.6640625" customWidth="1"/>
+    <col min="12" max="12" width="12.6640625" customWidth="1"/>
+    <col min="14" max="14" width="51.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -1837,34 +1997,43 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
         <v>9</v>
       </c>
@@ -1872,34 +2041,43 @@
         <v>60</v>
       </c>
       <c r="C2" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="F2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="4">
+      <c r="I2" s="4">
         <v>0</v>
       </c>
-      <c r="G2" s="4">
+      <c r="J2" s="4">
         <v>0</v>
       </c>
-      <c r="H2" s="10">
-        <v>20</v>
-      </c>
-      <c r="I2" s="10">
-        <v>1</v>
-      </c>
-      <c r="J2" s="10">
-        <v>5</v>
-      </c>
-      <c r="K2" s="5" t="s">
+      <c r="K2" s="10">
+        <v>20</v>
+      </c>
+      <c r="L2" s="10">
+        <v>1</v>
+      </c>
+      <c r="M2" s="10">
+        <v>5</v>
+      </c>
+      <c r="N2" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>26</v>
       </c>
@@ -1907,34 +2085,43 @@
         <v>61</v>
       </c>
       <c r="C3" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="F3" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="5" t="s">
+      <c r="G3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="6">
+      <c r="I3" s="6">
         <v>2.7</v>
       </c>
-      <c r="G3" s="6">
+      <c r="J3" s="6">
         <v>200</v>
       </c>
-      <c r="H3" s="10">
-        <v>20</v>
-      </c>
-      <c r="I3" s="10">
-        <v>1</v>
-      </c>
-      <c r="J3" s="10">
-        <v>5</v>
-      </c>
-      <c r="K3" s="5" t="s">
+      <c r="K3" s="10">
+        <v>20</v>
+      </c>
+      <c r="L3" s="10">
+        <v>1</v>
+      </c>
+      <c r="M3" s="10">
+        <v>5</v>
+      </c>
+      <c r="N3" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
         <v>18</v>
       </c>
@@ -1942,34 +2129,43 @@
         <v>62</v>
       </c>
       <c r="C4" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="F4" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="5" t="s">
+      <c r="G4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="6">
+      <c r="I4" s="6">
         <v>3</v>
       </c>
-      <c r="G4" s="6">
+      <c r="J4" s="6">
         <v>200</v>
       </c>
-      <c r="H4" s="10">
-        <v>20</v>
-      </c>
-      <c r="I4" s="10">
-        <v>1</v>
-      </c>
-      <c r="J4" s="10">
-        <v>5</v>
-      </c>
-      <c r="K4" s="5" t="s">
+      <c r="K4" s="10">
+        <v>20</v>
+      </c>
+      <c r="L4" s="10">
+        <v>1</v>
+      </c>
+      <c r="M4" s="10">
+        <v>5</v>
+      </c>
+      <c r="N4" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
         <v>30</v>
       </c>
@@ -1977,34 +2173,43 @@
         <v>63</v>
       </c>
       <c r="C5" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="F5" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" s="3" t="s">
+      <c r="G5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="3">
+      <c r="I5" s="3">
         <v>3.2</v>
       </c>
-      <c r="G5" s="6">
+      <c r="J5" s="6">
         <v>200</v>
       </c>
-      <c r="H5" s="10">
-        <v>20</v>
-      </c>
-      <c r="I5" s="10">
-        <v>1</v>
-      </c>
-      <c r="J5" s="10">
-        <v>5</v>
-      </c>
-      <c r="K5" s="5" t="s">
+      <c r="K5" s="10">
+        <v>20</v>
+      </c>
+      <c r="L5" s="10">
+        <v>1</v>
+      </c>
+      <c r="M5" s="10">
+        <v>5</v>
+      </c>
+      <c r="N5" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
         <v>31</v>
       </c>
@@ -2012,30 +2217,39 @@
         <v>64</v>
       </c>
       <c r="C6" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="F6" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E6" s="5" t="s">
+      <c r="G6" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="5">
+      <c r="I6" s="5">
         <v>2.8</v>
       </c>
-      <c r="G6" s="6">
+      <c r="J6" s="6">
         <v>200</v>
       </c>
-      <c r="H6" s="10">
-        <v>20</v>
-      </c>
-      <c r="I6" s="10">
-        <v>1</v>
-      </c>
-      <c r="J6" s="10">
-        <v>5</v>
-      </c>
-      <c r="K6" s="5" t="s">
+      <c r="K6" s="10">
+        <v>20</v>
+      </c>
+      <c r="L6" s="10">
+        <v>1</v>
+      </c>
+      <c r="M6" s="10">
+        <v>5</v>
+      </c>
+      <c r="N6" s="5" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2048,24 +2262,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="92.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.1796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7265625" customWidth="1"/>
-    <col min="8" max="8" width="12.7265625" customWidth="1"/>
-    <col min="10" max="10" width="51.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="92.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" customWidth="1"/>
+    <col min="10" max="10" width="51.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -2097,7 +2311,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
         <v>9</v>
       </c>
@@ -2129,7 +2343,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>20</v>
       </c>

--- a/cea/databases/CH/assemblies/SUPPLY.xlsx
+++ b/cea/databases/CH/assemblies/SUPPLY.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fonseca/Documents/GitHub/CityEnergyAnalyst/cea/databases/CH/assemblies/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Jimeno/Documents/GitHub/CityEnergyAnalyst/cea/databases/CH/assemblies/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC1937CF-78D3-DA44-B82D-6274BDAF7BDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1637D72A-55AA-B645-B0ED-742DFBD1B680}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="37780" yWindow="-6420" windowWidth="24880" windowHeight="12980" tabRatio="993" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9120" yWindow="740" windowWidth="20280" windowHeight="16740" tabRatio="993" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HEATING" sheetId="22" r:id="rId1"/>
@@ -518,10 +518,10 @@
     </xf>
   </cellXfs>
   <cellStyles count="4">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Normal 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="Normal 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2198,7 +2198,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA85FBFF-CAF7-3F46-9739-7A82A2DD17E7}">
   <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="135" zoomScaleNormal="135" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="135" zoomScaleNormal="135" workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
@@ -2211,6 +2211,10 @@
     <col min="5" max="5" width="8.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.83203125" customWidth="1"/>
     <col min="7" max="7" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
